--- a/exceldata/excel/all/X-限时活动.xlsx
+++ b/exceldata/excel/all/X-限时活动.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D46ADA-B8D4-B241-981C-2D055A1C9F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11540"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="584">
   <si>
     <t>不同活动可以包含相同的活动组，前提是它们的活动时间不会交叉，不然会有逻辑问题</t>
   </si>
@@ -103,6 +109,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -111,6 +118,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>con</t>
@@ -121,6 +129,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -129,6 +138,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oster</t>
@@ -151,6 +161,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -159,6 +170,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tring</t>
@@ -179,6 +191,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$uniq</t>
@@ -188,6 +201,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$no_empty</t>
@@ -202,6 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$ref(ActivityGroupData)</t>
@@ -211,6 +226,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$no_empty</t>
@@ -221,6 +237,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>r</t>
@@ -229,6 +246,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ef(IconData)</t>
@@ -242,12 +260,6 @@
   </si>
   <si>
     <t>寻花觅柳活动描述</t>
-  </si>
-  <si>
-    <t>2021-05-22 00:00:00</t>
-  </si>
-  <si>
-    <t>2021-06-27 23:59:59</t>
   </si>
   <si>
     <r>
@@ -255,6 +267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -264,6 +277,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1//活动组02</t>
@@ -289,12 +303,6 @@
   </si>
   <si>
     <t>盛夏将至活动描述</t>
-  </si>
-  <si>
-    <t>2021-07-29 00:00:00</t>
-  </si>
-  <si>
-    <t>2021-09-02 23:59:59</t>
   </si>
   <si>
     <t>活动组01//活动组03</t>
@@ -335,6 +343,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -344,6 +353,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ctivity_detail_list</t>
@@ -355,6 +365,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -364,6 +375,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tring_list</t>
@@ -375,6 +387,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$ref(ActivityDetailData)</t>
@@ -384,6 +397,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$no_empty</t>
@@ -395,6 +409,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -404,6 +419,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -415,6 +431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -424,6 +441,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1的描述</t>
@@ -438,6 +456,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -447,6 +466,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -458,6 +478,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -467,6 +488,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2的描述</t>
@@ -484,6 +506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -493,6 +516,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -504,6 +528,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -513,6 +538,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3的描述</t>
@@ -563,6 +589,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Activity</t>
@@ -572,6 +599,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Detail</t>
@@ -581,6 +609,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Data</t>
@@ -592,6 +621,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -601,6 +631,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>h_key</t>
@@ -618,6 +649,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>activity_cond</t>
@@ -627,6 +659,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_list</t>
@@ -638,6 +671,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>activity_reward</t>
@@ -647,6 +681,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_list</t>
@@ -657,6 +692,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -665,6 +701,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ctivity_bg</t>
@@ -675,6 +712,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -683,6 +721,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -694,6 +733,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
@@ -703,6 +743,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_list</t>
@@ -714,6 +755,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>string</t>
@@ -723,6 +765,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_list</t>
@@ -734,6 +777,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$</t>
@@ -743,6 +787,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>uniq</t>
@@ -752,6 +797,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$no_empty</t>
@@ -766,6 +812,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$ref(RankData)</t>
@@ -775,6 +822,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$uniq</t>
@@ -786,6 +834,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$ref(Activity</t>
@@ -795,6 +844,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Reward</t>
@@ -804,6 +854,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Data)</t>
@@ -813,6 +864,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$size(activity_cond_list)</t>
@@ -974,6 +1026,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Activity</t>
@@ -983,6 +1036,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Reward</t>
@@ -992,6 +1046,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Data</t>
@@ -1015,6 +1070,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$</t>
@@ -1024,6 +1080,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ref(ItemData)$no_empty</t>
@@ -2295,18 +2352,32 @@
   <si>
     <t>战力增长奖励25</t>
   </si>
+  <si>
+    <t>2022-04-27 00:00:00</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-27 23:59:59</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-02 23:59:59</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-28 23:59:59</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-03 23:59:59</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2316,6 +2387,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2323,12 +2395,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2336,6 +2410,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2344,183 +2419,49 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2529,13 +2470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2547,13 +2488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2571,174 +2512,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2876,104 +2655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -2989,182 +2670,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3202,15 +2739,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3229,38 +2757,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3271,76 +2769,74 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="15">
+    <cellStyle name="1表头" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="2填表文本" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="表头" xfId="11" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="1表头" xfId="1"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3 2" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 5" xfId="5"/>
-    <cellStyle name="常规 6" xfId="6"/>
-    <cellStyle name="普通数值" xfId="7"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
-    <cellStyle name="输入" xfId="11" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13" builtinId="38"/>
-    <cellStyle name="货币" xfId="14" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="15" builtinId="37"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="18" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="19" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32"/>
-    <cellStyle name="2填表文本" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="22" builtinId="44"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="24" builtinId="29"/>
-    <cellStyle name="适中" xfId="25" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="26" builtinId="46"/>
-    <cellStyle name="好" xfId="27" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="28" builtinId="30"/>
-    <cellStyle name="汇总" xfId="29" builtinId="25"/>
-    <cellStyle name="差" xfId="30" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="31" builtinId="23"/>
-    <cellStyle name="输出" xfId="32" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="33" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="34" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="36" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="常规 2 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="40" builtinId="3"/>
-    <cellStyle name="常规 3 3" xfId="41"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9"/>
-    <cellStyle name="标题" xfId="43" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="45" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="46" builtinId="40"/>
-    <cellStyle name="注释" xfId="47" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="52" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="53" builtinId="17"/>
-    <cellStyle name="表头" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="55" builtinId="47"/>
-    <cellStyle name="适中 2" xfId="56"/>
-    <cellStyle name="标题 3" xfId="57" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="常规 7" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="60" builtinId="31"/>
-    <cellStyle name="常规 3" xfId="61"/>
-    <cellStyle name="链接单元格" xfId="62" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="常规 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 7" xfId="13" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="普通数值" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="适中 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3627,78 +3123,77 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:12">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1">
+      <c r="A2" s="26"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:12">
+      <c r="I2" s="26"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3726,17 +3221,17 @@
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3764,17 +3259,17 @@
       <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -3802,17 +3297,17 @@
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -3828,29 +3323,29 @@
       <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="20" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>1</v>
@@ -3865,61 +3360,61 @@
         <v>42</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="J7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="K7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="L7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:12">
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="J8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="K8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3930,71 +3425,69 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.1640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:9" ht="20" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
+      <c r="E1" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
@@ -4003,13 +3496,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -4023,10 +3516,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -4040,148 +3533,146 @@
         <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="9:9">
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" customHeight="1" spans="9:9">
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" customHeight="1" spans="9:9">
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" customHeight="1" spans="9:9">
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" customHeight="1" spans="9:9">
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" customHeight="1" spans="9:9">
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" customHeight="1" spans="9:9">
-      <c r="I16" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="I16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="19.1640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="20" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="14" t="s">
+      <c r="F2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4192,54 +3683,54 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="H4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="I4" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -4256,19 +3747,19 @@
         <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -4276,254 +3767,254 @@
         <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>110</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>114</v>
+        <v>71</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>134</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="G13" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>140</v>
-      </c>
       <c r="H13" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="G14" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>146</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4532,83 +4023,81 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.1640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="20" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -4622,10 +4111,10 @@
         <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -4633,2508 +4122,2508 @@
         <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:5">
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1">
       <c r="A54" s="10"/>
       <c r="B54" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1">
       <c r="A55" s="10"/>
       <c r="B55" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1">
       <c r="A56" s="10"/>
       <c r="B56" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20" customHeight="1">
       <c r="A57" s="10"/>
       <c r="B57" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="20" customHeight="1">
       <c r="A58" s="10"/>
       <c r="B58" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="20" customHeight="1">
       <c r="A59" s="10"/>
       <c r="B59" s="9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20" customHeight="1">
       <c r="A60" s="10"/>
       <c r="B60" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20" customHeight="1">
       <c r="A61" s="10"/>
       <c r="B61" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20" customHeight="1">
       <c r="A62" s="10"/>
       <c r="B62" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20" customHeight="1">
       <c r="A63" s="10"/>
       <c r="B63" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="20" customHeight="1">
       <c r="A64" s="10"/>
       <c r="B64" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20" customHeight="1">
       <c r="A65" s="10"/>
       <c r="B65" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="20" customHeight="1">
       <c r="A66" s="10"/>
       <c r="B66" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="20" customHeight="1">
       <c r="A67" s="10"/>
       <c r="B67" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="20" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="20" customHeight="1">
       <c r="A69" s="10"/>
       <c r="B69" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="20" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="20" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="20" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="20" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="20" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="20" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="20" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="20" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="20" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="20" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="20" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="20" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="20" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="20" customHeight="1">
       <c r="A84" s="8"/>
       <c r="B84" s="9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="20" customHeight="1">
       <c r="A85" s="8"/>
       <c r="B85" s="9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="20" customHeight="1">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="20" customHeight="1">
       <c r="A87" s="8"/>
       <c r="B87" s="9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="20" customHeight="1">
       <c r="A88" s="8"/>
       <c r="B88" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="20" customHeight="1">
       <c r="A89" s="8"/>
       <c r="B89" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="20" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="20" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="20" customHeight="1">
       <c r="A92" s="8"/>
       <c r="B92" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="20" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="20" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="20" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="20" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D96" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:5">
+    </row>
+    <row r="97" spans="1:5" ht="20" customHeight="1">
       <c r="A97" s="10"/>
       <c r="B97" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="20" customHeight="1">
       <c r="A98" s="10"/>
       <c r="B98" s="9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="20" customHeight="1">
       <c r="A99" s="10"/>
       <c r="B99" s="9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="20" customHeight="1">
       <c r="A100" s="10"/>
       <c r="B100" s="9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="20" customHeight="1">
       <c r="A101" s="10"/>
       <c r="B101" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D101" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:5">
+    </row>
+    <row r="102" spans="1:5" ht="20" customHeight="1">
       <c r="A102" s="10"/>
       <c r="B102" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="20" customHeight="1">
       <c r="A103" s="10"/>
       <c r="B103" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="20" customHeight="1">
       <c r="A104" s="10"/>
       <c r="B104" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="20" customHeight="1">
       <c r="A105" s="10"/>
       <c r="B105" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="20" customHeight="1">
       <c r="A106" s="10"/>
       <c r="B106" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D106" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:5">
+    </row>
+    <row r="107" spans="1:5" ht="20" customHeight="1">
       <c r="A107" s="10"/>
       <c r="B107" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="20" customHeight="1">
       <c r="A108" s="8"/>
       <c r="B108" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="20" customHeight="1">
       <c r="A109" s="8"/>
       <c r="B109" s="9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="20" customHeight="1">
       <c r="A110" s="10"/>
       <c r="B110" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="20" customHeight="1">
       <c r="A111" s="10"/>
       <c r="B111" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="20" customHeight="1">
       <c r="A112" s="10"/>
       <c r="B112" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="20" customHeight="1">
       <c r="A113" s="10"/>
       <c r="B113" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="20" customHeight="1">
       <c r="A114" s="10"/>
       <c r="B114" s="9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="20" customHeight="1">
       <c r="A115" s="10"/>
       <c r="B115" s="9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="20" customHeight="1">
       <c r="A116" s="10"/>
       <c r="B116" s="9" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="20" customHeight="1">
       <c r="A117" s="10"/>
       <c r="B117" s="9" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="20" customHeight="1">
       <c r="A118" s="10"/>
       <c r="B118" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="20" customHeight="1">
       <c r="A119" s="10"/>
       <c r="B119" s="9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="20" customHeight="1">
       <c r="A120" s="10"/>
       <c r="B120" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="20" customHeight="1">
       <c r="A121" s="10"/>
       <c r="B121" s="9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="122" customHeight="1" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="20" customHeight="1">
       <c r="A122" s="10"/>
       <c r="B122" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="123" customHeight="1" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="20" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="9" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="124" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="20" customHeight="1">
       <c r="A124" s="8"/>
       <c r="B124" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="20" customHeight="1">
       <c r="A125" s="10"/>
       <c r="B125" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="126" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="20" customHeight="1">
       <c r="A126" s="10"/>
       <c r="B126" s="9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="127" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="20" customHeight="1">
       <c r="A127" s="10"/>
       <c r="B127" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="20" customHeight="1">
       <c r="A128" s="10"/>
       <c r="B128" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="129" customHeight="1" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="20" customHeight="1">
       <c r="A129" s="10"/>
       <c r="B129" s="9" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="20" customHeight="1">
       <c r="A130" s="10"/>
       <c r="B130" s="9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="20" customHeight="1">
       <c r="A131" s="10"/>
       <c r="B131" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="132" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="20" customHeight="1">
       <c r="A132" s="10"/>
       <c r="B132" s="9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133" customHeight="1" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="20" customHeight="1">
       <c r="A133" s="10"/>
       <c r="B133" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="20" customHeight="1">
       <c r="A134" s="10"/>
       <c r="B134" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="20" customHeight="1">
       <c r="A135" s="10"/>
       <c r="B135" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="20" customHeight="1">
       <c r="A136" s="10"/>
       <c r="B136" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="137" customHeight="1" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="20" customHeight="1">
       <c r="A137" s="10"/>
       <c r="B137" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="20" customHeight="1">
       <c r="A138" s="10"/>
       <c r="B138" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="20" customHeight="1">
       <c r="A139" s="10"/>
       <c r="B139" s="9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="20" customHeight="1">
       <c r="A140" s="10"/>
       <c r="B140" s="9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="141" customHeight="1" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="20" customHeight="1">
       <c r="A141" s="10"/>
       <c r="B141" s="9" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="20" customHeight="1">
       <c r="A142" s="10"/>
       <c r="B142" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="20" customHeight="1">
       <c r="A143" s="10"/>
       <c r="B143" s="9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="144" customHeight="1" spans="1:5">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="20" customHeight="1">
       <c r="A144" s="10"/>
       <c r="B144" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="145" customHeight="1" spans="1:5">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="20" customHeight="1">
       <c r="A145" s="10"/>
       <c r="B145" s="9" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="146" customHeight="1" spans="1:5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="20" customHeight="1">
       <c r="A146" s="10"/>
       <c r="B146" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="147" customHeight="1" spans="1:5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="20" customHeight="1">
       <c r="A147" s="10"/>
       <c r="B147" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="148" customHeight="1" spans="1:5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="20" customHeight="1">
       <c r="A148" s="10"/>
       <c r="B148" s="9" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="149" customHeight="1" spans="1:5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="20" customHeight="1">
       <c r="A149" s="10"/>
       <c r="B149" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D149" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E149" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E149" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="150" customHeight="1" spans="1:5">
+    </row>
+    <row r="150" spans="1:5" ht="20" customHeight="1">
       <c r="A150" s="10"/>
       <c r="B150" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="20" customHeight="1">
       <c r="A151" s="10"/>
       <c r="B151" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="20" customHeight="1">
       <c r="A152" s="10"/>
       <c r="B152" s="9" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="20" customHeight="1">
       <c r="A153" s="10"/>
       <c r="B153" s="9" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="154" customHeight="1" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="20" customHeight="1">
       <c r="A154" s="10"/>
       <c r="B154" s="9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="155" customHeight="1" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="20" customHeight="1">
       <c r="A155" s="10"/>
       <c r="B155" s="9" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="156" customHeight="1" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="20" customHeight="1">
       <c r="A156" s="10"/>
       <c r="B156" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="157" customHeight="1" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="20" customHeight="1">
       <c r="A157" s="10"/>
       <c r="B157" s="9" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="20" customHeight="1">
       <c r="A158" s="10"/>
       <c r="B158" s="9" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="159" customHeight="1" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="20" customHeight="1">
       <c r="A159" s="10"/>
       <c r="B159" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="160" customHeight="1" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="20" customHeight="1">
       <c r="A160" s="10"/>
       <c r="B160" s="9" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="161" customHeight="1" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="20" customHeight="1">
       <c r="A161" s="10"/>
       <c r="B161" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="162" customHeight="1" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="20" customHeight="1">
       <c r="A162" s="10"/>
       <c r="B162" s="9" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="163" customHeight="1" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="20" customHeight="1">
       <c r="A163" s="10"/>
       <c r="B163" s="9" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="164" customHeight="1" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="20" customHeight="1">
       <c r="A164" s="10"/>
       <c r="B164" s="9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="165" customHeight="1" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="20" customHeight="1">
       <c r="A165" s="10"/>
       <c r="B165" s="9" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="166" customHeight="1" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="20" customHeight="1">
       <c r="A166" s="10"/>
       <c r="B166" s="9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="167" customHeight="1" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="20" customHeight="1">
       <c r="A167" s="10"/>
       <c r="B167" s="9" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="168" customHeight="1" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="20" customHeight="1">
       <c r="A168" s="10"/>
       <c r="B168" s="9" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="169" customHeight="1" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="20" customHeight="1">
       <c r="A169" s="10"/>
       <c r="B169" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="170" customHeight="1" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="20" customHeight="1">
       <c r="A170" s="10"/>
       <c r="B170" s="9" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="171" customHeight="1" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="20" customHeight="1">
       <c r="A171" s="10"/>
       <c r="B171" s="9" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="172" customHeight="1" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="20" customHeight="1">
       <c r="A172" s="10"/>
       <c r="B172" s="9" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/exceldata/excel/all/X-限时活动.xlsx
+++ b/exceldata/excel/all/X-限时活动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D46ADA-B8D4-B241-981C-2D055A1C9F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB38B39-7712-E144-8746-B1EF16BD2005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="1840" windowWidth="28800" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="583">
   <si>
     <t>不同活动可以包含相同的活动组，前提是它们的活动时间不会交叉，不然会有逻辑问题</t>
   </si>
@@ -2353,23 +2353,19 @@
     <t>战力增长奖励25</t>
   </si>
   <si>
+    <t>2022-07-29 00:00:00</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>2022-04-27 00:00:00</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>2023-06-27 23:59:59</t>
+    <t>2022-06-27 00:00:00</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>2023-09-02 23:59:59</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-06-28 23:59:59</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-09-03 23:59:59</t>
+    <t>2022-06-29 00:00:00</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3135,7 +3131,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -3360,13 +3356,13 @@
         <v>42</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>43</v>
@@ -3396,13 +3392,13 @@
         <v>50</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>581</v>
-      </c>
       <c r="H8" s="9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>51</v>
@@ -4034,7 +4030,7 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E70" sqref="E70"/>

--- a/exceldata/excel/all/X-限时活动.xlsx
+++ b/exceldata/excel/all/X-限时活动.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB38B39-7712-E144-8746-B1EF16BD2005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1840" windowWidth="28800" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="584">
   <si>
     <t>不同活动可以包含相同的活动组，前提是它们的活动时间不会交叉，不然会有逻辑问题</t>
   </si>
@@ -109,7 +103,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -118,7 +111,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>con</t>
@@ -129,7 +121,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -138,7 +129,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oster</t>
@@ -161,7 +151,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -170,7 +159,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tring</t>
@@ -191,7 +179,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$uniq</t>
@@ -201,7 +188,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$no_empty</t>
@@ -216,7 +202,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$ref(ActivityGroupData)</t>
@@ -226,7 +211,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$no_empty</t>
@@ -237,7 +221,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>r</t>
@@ -246,7 +229,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ef(IconData)</t>
@@ -260,6 +242,15 @@
   </si>
   <si>
     <t>寻花觅柳活动描述</t>
+  </si>
+  <si>
+    <t>2022-05-04 15:50:00</t>
+  </si>
+  <si>
+    <t>2022-07-27 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-27 00:00:00</t>
   </si>
   <si>
     <r>
@@ -267,7 +258,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -277,7 +267,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1//活动组02</t>
@@ -303,6 +292,12 @@
   </si>
   <si>
     <t>盛夏将至活动描述</t>
+  </si>
+  <si>
+    <t>2022-06-29 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-29 00:00:00</t>
   </si>
   <si>
     <t>活动组01//活动组03</t>
@@ -343,7 +338,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -353,7 +347,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ctivity_detail_list</t>
@@ -365,7 +358,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -375,7 +367,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tring_list</t>
@@ -387,7 +378,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$ref(ActivityDetailData)</t>
@@ -397,7 +387,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$no_empty</t>
@@ -409,7 +398,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -419,7 +407,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -431,7 +418,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -441,7 +427,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1的描述</t>
@@ -456,7 +441,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -466,7 +450,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -478,7 +461,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -488,7 +470,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2的描述</t>
@@ -506,7 +487,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -516,7 +496,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -528,7 +507,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动组0</t>
@@ -538,7 +516,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3的描述</t>
@@ -589,7 +566,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Activity</t>
@@ -599,7 +575,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Detail</t>
@@ -609,7 +584,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Data</t>
@@ -621,7 +595,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -631,7 +604,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>h_key</t>
@@ -649,7 +621,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>activity_cond</t>
@@ -659,7 +630,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_list</t>
@@ -671,7 +641,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>activity_reward</t>
@@ -681,7 +650,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_list</t>
@@ -692,7 +660,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -701,7 +668,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ctivity_bg</t>
@@ -712,7 +678,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -721,7 +686,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -733,7 +697,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
@@ -743,7 +706,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_list</t>
@@ -755,7 +717,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>string</t>
@@ -765,7 +726,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_list</t>
@@ -777,7 +737,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$</t>
@@ -787,7 +746,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>uniq</t>
@@ -797,7 +755,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$no_empty</t>
@@ -812,7 +769,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$ref(RankData)</t>
@@ -822,7 +778,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$uniq</t>
@@ -834,7 +789,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$ref(Activity</t>
@@ -844,7 +798,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Reward</t>
@@ -854,7 +807,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Data)</t>
@@ -864,7 +816,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$size(activity_cond_list)</t>
@@ -1026,7 +977,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Activity</t>
@@ -1036,7 +986,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Reward</t>
@@ -1046,7 +995,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Data</t>
@@ -1070,7 +1018,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>$</t>
@@ -1080,7 +1027,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ref(ItemData)$no_empty</t>
@@ -2352,28 +2298,18 @@
   <si>
     <t>战力增长奖励25</t>
   </si>
-  <si>
-    <t>2022-07-29 00:00:00</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-04-27 00:00:00</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-06-27 00:00:00</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-06-29 00:00:00</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2383,7 +2319,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2391,14 +2326,32 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2406,8 +2359,14 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2415,49 +2374,161 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2466,13 +2537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,13 +2555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2502,7 +2579,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,8 +2763,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2651,6 +2908,104 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -2666,38 +3021,182 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2717,7 +3216,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2729,12 +3228,21 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2753,8 +3261,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2765,74 +3303,76 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="1表头" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="2填表文本" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="表头" xfId="11" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+  <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="常规 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="常规 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 7" xfId="13" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="普通数值" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="适中 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="普通数值" xfId="1"/>
+    <cellStyle name="常规 6" xfId="2"/>
+    <cellStyle name="常规 5" xfId="3"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="常规 3 2" xfId="5"/>
+    <cellStyle name="常规 2" xfId="6"/>
+    <cellStyle name="1表头" xfId="7"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
+    <cellStyle name="输入" xfId="11" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13" builtinId="38"/>
+    <cellStyle name="货币" xfId="14" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="15" builtinId="37"/>
+    <cellStyle name="百分比" xfId="16" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="18" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="19" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32"/>
+    <cellStyle name="2填表文本" xfId="21"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="22" builtinId="44"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="24" builtinId="29"/>
+    <cellStyle name="适中" xfId="25" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="26" builtinId="46"/>
+    <cellStyle name="好" xfId="27" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="28" builtinId="30"/>
+    <cellStyle name="汇总" xfId="29" builtinId="25"/>
+    <cellStyle name="差" xfId="30" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="31" builtinId="23"/>
+    <cellStyle name="输出" xfId="32" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="33" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="34" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="36" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="常规 2 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="40" builtinId="3"/>
+    <cellStyle name="常规 3 3" xfId="41"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9"/>
+    <cellStyle name="标题" xfId="43" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="45" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="46" builtinId="40"/>
+    <cellStyle name="注释" xfId="47" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="52" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="53" builtinId="17"/>
+    <cellStyle name="表头" xfId="54"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="55" builtinId="47"/>
+    <cellStyle name="适中 2" xfId="56"/>
+    <cellStyle name="标题 3" xfId="57" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
+    <cellStyle name="常规 7" xfId="59"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="60" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="61"/>
+    <cellStyle name="链接单元格" xfId="62" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3119,77 +3659,78 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8303571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6607142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6607142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1607142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.8303571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6607142857143" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1607142857143" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" ht="29.25" customHeight="1" spans="1:12">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:12">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="I2" s="25"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3217,17 +3758,17 @@
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1">
+    <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3255,17 +3796,17 @@
       <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1">
+    <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -3293,17 +3834,17 @@
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1">
+    <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -3319,29 +3860,29 @@
       <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="30" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1">
+    <row r="7" customHeight="1" spans="1:12">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>1</v>
@@ -3356,61 +3897,61 @@
         <v>42</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>580</v>
+        <v>43</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>581</v>
+        <v>44</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>581</v>
+        <v>45</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>582</v>
+        <v>54</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>579</v>
+        <v>55</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>579</v>
+        <v>55</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3421,69 +3962,71 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66071428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1607142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.1607142857143" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
@@ -3492,13 +4035,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -3512,10 +4055,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -3529,146 +4072,148 @@
         <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>71</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
-      <c r="I16" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="9:9">
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" customHeight="1" spans="9:9">
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" customHeight="1" spans="9:9">
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" customHeight="1" spans="9:9">
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" customHeight="1" spans="9:9">
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" customHeight="1" spans="9:9">
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" customHeight="1" spans="9:9">
+      <c r="I16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="19.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3303571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8303571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1607142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6607142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6607142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.3303571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6607142857143" style="1" customWidth="1"/>
+    <col min="8" max="9" width="19.1607142857143" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="36"/>
+    <row r="1" customHeight="1" spans="1:9">
+      <c r="A1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="D1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="36"/>
+        <v>82</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="34"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>85</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3679,54 +4224,54 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -3743,19 +4288,19 @@
         <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -3763,254 +4308,254 @@
         <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>106</v>
+        <v>50</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>110</v>
+        <v>76</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4019,81 +4564,83 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.16071428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3303571428571" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.1607142857143" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -4107,10 +4654,10 @@
         <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -4118,2508 +4665,2508 @@
         <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
       <c r="A45" s="10"/>
       <c r="B45" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="10"/>
       <c r="B46" s="9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="10"/>
       <c r="B47" s="9" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="10"/>
       <c r="B48" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
       <c r="A49" s="10"/>
       <c r="B49" s="9" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:5">
       <c r="A50" s="10"/>
       <c r="B50" s="9" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="10"/>
       <c r="B51" s="9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="10"/>
       <c r="B52" s="9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="20" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="10"/>
       <c r="B53" s="9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="20" customHeight="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="10"/>
       <c r="B54" s="9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="20" customHeight="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="10"/>
       <c r="B55" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="20" customHeight="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="10"/>
       <c r="B56" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="20" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="10"/>
       <c r="B57" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="20" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:5">
       <c r="A58" s="10"/>
       <c r="B58" s="9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="20" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:5">
       <c r="A59" s="10"/>
       <c r="B59" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20" customHeight="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
       <c r="A60" s="10"/>
       <c r="B60" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="20" customHeight="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:5">
       <c r="A61" s="10"/>
       <c r="B61" s="9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="20" customHeight="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:5">
       <c r="A62" s="10"/>
       <c r="B62" s="9" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="20" customHeight="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:5">
       <c r="A63" s="10"/>
       <c r="B63" s="9" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="20" customHeight="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:5">
       <c r="A64" s="10"/>
       <c r="B64" s="9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="20" customHeight="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:5">
       <c r="A65" s="10"/>
       <c r="B65" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="20" customHeight="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:5">
       <c r="A66" s="10"/>
       <c r="B66" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="20" customHeight="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:5">
       <c r="A67" s="10"/>
       <c r="B67" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="20" customHeight="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:5">
       <c r="A68" s="10"/>
       <c r="B68" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="20" customHeight="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:5">
       <c r="A69" s="10"/>
       <c r="B69" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="20" customHeight="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:5">
       <c r="A70" s="8"/>
       <c r="B70" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:5">
       <c r="A71" s="8"/>
       <c r="B71" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:5">
       <c r="A72" s="8"/>
       <c r="B72" s="9" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C72" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="E72" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:5">
       <c r="A73" s="8"/>
       <c r="B73" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="74" customHeight="1" spans="1:5">
       <c r="A74" s="8"/>
       <c r="B74" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="20" customHeight="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:5">
       <c r="A75" s="8"/>
       <c r="B75" s="9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="20" customHeight="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:5">
       <c r="A76" s="8"/>
       <c r="B76" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="20" customHeight="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:5">
       <c r="A77" s="8"/>
       <c r="B77" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="78" customHeight="1" spans="1:5">
       <c r="A78" s="8"/>
       <c r="B78" s="9" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:5">
       <c r="A79" s="8"/>
       <c r="B79" s="9" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:5">
       <c r="A80" s="8"/>
       <c r="B80" s="9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C80" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>360</v>
-      </c>
       <c r="E80" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:5">
       <c r="A81" s="8"/>
       <c r="B81" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="82" customHeight="1" spans="1:5">
       <c r="A82" s="8"/>
       <c r="B82" s="9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:5">
       <c r="A83" s="8"/>
       <c r="B83" s="9" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:5">
       <c r="A84" s="8"/>
       <c r="B84" s="9" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:5">
       <c r="A85" s="8"/>
       <c r="B85" s="9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:5">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:5">
       <c r="A87" s="8"/>
       <c r="B87" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C87" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>376</v>
-      </c>
       <c r="E87" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:5">
       <c r="A88" s="8"/>
       <c r="B88" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="89" customHeight="1" spans="1:5">
       <c r="A89" s="8"/>
       <c r="B89" s="9" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:5">
       <c r="A90" s="8"/>
       <c r="B90" s="9" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:5">
       <c r="A91" s="8"/>
       <c r="B91" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:5">
       <c r="A92" s="8"/>
       <c r="B92" s="9" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:5">
       <c r="A93" s="8"/>
       <c r="B93" s="9" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:5">
       <c r="A94" s="8"/>
       <c r="B94" s="9" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="20" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:5">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="20" customHeight="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:5">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="20" customHeight="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:5">
       <c r="A97" s="10"/>
       <c r="B97" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>398</v>
-      </c>
       <c r="E97" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="20" customHeight="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:5">
       <c r="A98" s="10"/>
       <c r="B98" s="9" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="20" customHeight="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:5">
       <c r="A99" s="10"/>
       <c r="B99" s="9" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="20" customHeight="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:5">
       <c r="A100" s="10"/>
       <c r="B100" s="9" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="20" customHeight="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:5">
       <c r="A101" s="10"/>
       <c r="B101" s="9" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="20" customHeight="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:5">
       <c r="A102" s="10"/>
       <c r="B102" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>414</v>
-      </c>
       <c r="E102" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="20" customHeight="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:5">
       <c r="A103" s="10"/>
       <c r="B103" s="9" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="20" customHeight="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:5">
       <c r="A104" s="10"/>
       <c r="B104" s="9" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="20" customHeight="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:5">
       <c r="A105" s="10"/>
       <c r="B105" s="9" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="20" customHeight="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:5">
       <c r="A106" s="10"/>
       <c r="B106" s="9" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="20" customHeight="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:5">
       <c r="A107" s="10"/>
       <c r="B107" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>430</v>
-      </c>
       <c r="E107" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="20" customHeight="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:5">
       <c r="A108" s="8"/>
       <c r="B108" s="9" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:5">
       <c r="A109" s="8"/>
       <c r="B109" s="9" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:5">
       <c r="A110" s="10"/>
       <c r="B110" s="9" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:5">
       <c r="A111" s="10"/>
       <c r="B111" s="9" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="20" customHeight="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:5">
       <c r="A112" s="10"/>
       <c r="B112" s="9" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="20" customHeight="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:5">
       <c r="A113" s="10"/>
       <c r="B113" s="9" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:5">
       <c r="A114" s="10"/>
       <c r="B114" s="9" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:5">
       <c r="A115" s="10"/>
       <c r="B115" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:5">
       <c r="A116" s="10"/>
       <c r="B116" s="9" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="20" customHeight="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:5">
       <c r="A117" s="10"/>
       <c r="B117" s="9" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="20" customHeight="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:5">
       <c r="A118" s="10"/>
       <c r="B118" s="9" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:5">
       <c r="A119" s="10"/>
       <c r="B119" s="9" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:5">
       <c r="A120" s="10"/>
       <c r="B120" s="9" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:5">
       <c r="A121" s="10"/>
       <c r="B121" s="9" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="20" customHeight="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:5">
       <c r="A122" s="10"/>
       <c r="B122" s="9" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="20" customHeight="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:5">
       <c r="A123" s="8"/>
       <c r="B123" s="9" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:5">
       <c r="A124" s="8"/>
       <c r="B124" s="9" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:5">
       <c r="A125" s="10"/>
       <c r="B125" s="9" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C125" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="D125" s="9" t="s">
-        <v>473</v>
-      </c>
       <c r="E125" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:5">
       <c r="A126" s="10"/>
       <c r="B126" s="9" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:5">
       <c r="A127" s="10"/>
       <c r="B127" s="9" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:5">
       <c r="A128" s="10"/>
       <c r="B128" s="9" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:5">
       <c r="A129" s="10"/>
       <c r="B129" s="9" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:5">
       <c r="A130" s="10"/>
       <c r="B130" s="9" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="20" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:5">
       <c r="A131" s="10"/>
       <c r="B131" s="9" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C131" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>487</v>
-      </c>
       <c r="E131" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:5">
       <c r="A132" s="10"/>
       <c r="B132" s="9" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="20" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:5">
       <c r="A133" s="10"/>
       <c r="B133" s="9" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:5">
       <c r="A134" s="10"/>
       <c r="B134" s="9" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:5">
       <c r="A135" s="10"/>
       <c r="B135" s="9" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="20" customHeight="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:5">
       <c r="A136" s="10"/>
       <c r="B136" s="9" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="20" customHeight="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:5">
       <c r="A137" s="10"/>
       <c r="B137" s="9" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:5">
       <c r="A138" s="10"/>
       <c r="B138" s="9" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="20" customHeight="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:5">
       <c r="A139" s="10"/>
       <c r="B139" s="9" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C139" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>505</v>
-      </c>
       <c r="E139" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="20" customHeight="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:5">
       <c r="A140" s="10"/>
       <c r="B140" s="9" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="20" customHeight="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:5">
       <c r="A141" s="10"/>
       <c r="B141" s="9" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="20" customHeight="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:5">
       <c r="A142" s="10"/>
       <c r="B142" s="9" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="20" customHeight="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:5">
       <c r="A143" s="10"/>
       <c r="B143" s="9" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="20" customHeight="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:5">
       <c r="A144" s="10"/>
       <c r="B144" s="9" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="20" customHeight="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:5">
       <c r="A145" s="10"/>
       <c r="B145" s="9" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="20" customHeight="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:5">
       <c r="A146" s="10"/>
       <c r="B146" s="9" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="20" customHeight="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:5">
       <c r="A147" s="10"/>
       <c r="B147" s="9" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="20" customHeight="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:5">
       <c r="A148" s="10"/>
       <c r="B148" s="9" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="20" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:5">
       <c r="A149" s="10"/>
       <c r="B149" s="9" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="20" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:5">
       <c r="A150" s="10"/>
       <c r="B150" s="9" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="20" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:5">
       <c r="A151" s="10"/>
       <c r="B151" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="20" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:5">
       <c r="A152" s="10"/>
       <c r="B152" s="9" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="20" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:5">
       <c r="A153" s="10"/>
       <c r="B153" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="20" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:5">
       <c r="A154" s="10"/>
       <c r="B154" s="9" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="20" customHeight="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:5">
       <c r="A155" s="10"/>
       <c r="B155" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="20" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:5">
       <c r="A156" s="10"/>
       <c r="B156" s="9" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="20" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:5">
       <c r="A157" s="10"/>
       <c r="B157" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="20" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:5">
       <c r="A158" s="10"/>
       <c r="B158" s="9" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="20" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:5">
       <c r="A159" s="10"/>
       <c r="B159" s="9" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="20" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:5">
       <c r="A160" s="10"/>
       <c r="B160" s="9" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="20" customHeight="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:5">
       <c r="A161" s="10"/>
       <c r="B161" s="9" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="20" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:5">
       <c r="A162" s="10"/>
       <c r="B162" s="9" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="20" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:5">
       <c r="A163" s="10"/>
       <c r="B163" s="9" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="20" customHeight="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:5">
       <c r="A164" s="10"/>
       <c r="B164" s="9" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="20" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:5">
       <c r="A165" s="10"/>
       <c r="B165" s="9" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="20" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:5">
       <c r="A166" s="10"/>
       <c r="B166" s="9" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="20" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:5">
       <c r="A167" s="10"/>
       <c r="B167" s="9" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="20" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:5">
       <c r="A168" s="10"/>
       <c r="B168" s="9" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="20" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:5">
       <c r="A169" s="10"/>
       <c r="B169" s="9" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="20" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:5">
       <c r="A170" s="10"/>
       <c r="B170" s="9" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="20" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:5">
       <c r="A171" s="10"/>
       <c r="B171" s="9" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="20" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:5">
       <c r="A172" s="10"/>
       <c r="B172" s="9" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/exceldata/excel/all/X-限时活动.xlsx
+++ b/exceldata/excel/all/X-限时活动.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="585">
   <si>
     <t>不同活动可以包含相同的活动组，前提是它们的活动时间不会交叉，不然会有逻辑问题</t>
   </si>
@@ -247,10 +247,10 @@
     <t>2022-05-04 15:50:00</t>
   </si>
   <si>
-    <t>2022-07-27 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-08-27 00:00:00</t>
+    <t>2022-06-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-11 00:00:00</t>
   </si>
   <si>
     <r>
@@ -294,10 +294,13 @@
     <t>盛夏将至活动描述</t>
   </si>
   <si>
-    <t>2022-06-29 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-29 00:00:00</t>
+    <t>2022-06-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-29 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-09-29 00:00:00</t>
   </si>
   <si>
     <t>活动组01//活动组03</t>
@@ -3672,7 +3675,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="7"/>
@@ -3939,19 +3942,19 @@
         <v>55</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +4000,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
@@ -4012,21 +4015,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
@@ -4035,10 +4038,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
@@ -4055,7 +4058,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
@@ -4072,7 +4075,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
@@ -4081,13 +4084,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
@@ -4096,28 +4099,28 @@
         <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="9:9">
@@ -4179,36 +4182,36 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="3"/>
       <c r="D1" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="3"/>
       <c r="D2" s="15"/>
       <c r="E2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -4224,51 +4227,51 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
@@ -4288,10 +4291,10 @@
         <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>32</v>
@@ -4308,19 +4311,19 @@
         <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>39</v>
@@ -4330,26 +4333,26 @@
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -4358,204 +4361,204 @@
         <v>50</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="I8" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="I11" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="I13" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="I14" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4611,33 +4614,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
@@ -4654,7 +4657,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
@@ -4665,28 +4668,28 @@
         <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
@@ -4695,2473 +4698,2473 @@
         <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:5">
       <c r="A45" s="10"/>
       <c r="B45" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="10"/>
       <c r="B46" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="10"/>
       <c r="B47" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="10"/>
       <c r="B48" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:5">
       <c r="A49" s="10"/>
       <c r="B49" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:5">
       <c r="A50" s="10"/>
       <c r="B50" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="10"/>
       <c r="B51" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="10"/>
       <c r="B52" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="10"/>
       <c r="B53" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="10"/>
       <c r="B54" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="10"/>
       <c r="B55" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="10"/>
       <c r="B56" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="10"/>
       <c r="B57" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
       <c r="A58" s="10"/>
       <c r="B58" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:5">
       <c r="A59" s="10"/>
       <c r="B59" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
       <c r="A60" s="10"/>
       <c r="B60" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:5">
       <c r="A61" s="10"/>
       <c r="B61" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:5">
       <c r="A62" s="10"/>
       <c r="B62" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:5">
       <c r="A63" s="10"/>
       <c r="B63" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:5">
       <c r="A64" s="10"/>
       <c r="B64" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:5">
       <c r="A65" s="10"/>
       <c r="B65" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:5">
       <c r="A66" s="10"/>
       <c r="B66" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:5">
       <c r="A67" s="10"/>
       <c r="B67" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:5">
       <c r="A68" s="10"/>
       <c r="B68" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:5">
       <c r="A69" s="10"/>
       <c r="B69" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:5">
       <c r="A70" s="8"/>
       <c r="B70" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:5">
       <c r="A71" s="8"/>
       <c r="B71" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:5">
       <c r="A72" s="8"/>
       <c r="B72" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:5">
       <c r="A73" s="8"/>
       <c r="B73" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:5">
       <c r="A74" s="8"/>
       <c r="B74" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:5">
       <c r="A75" s="8"/>
       <c r="B75" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:5">
       <c r="A76" s="8"/>
       <c r="B76" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:5">
       <c r="A77" s="8"/>
       <c r="B77" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:5">
       <c r="A78" s="8"/>
       <c r="B78" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:5">
       <c r="A79" s="8"/>
       <c r="B79" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:5">
       <c r="A80" s="8"/>
       <c r="B80" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:5">
       <c r="A81" s="8"/>
       <c r="B81" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:5">
       <c r="A82" s="8"/>
       <c r="B82" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:5">
       <c r="A83" s="8"/>
       <c r="B83" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:5">
       <c r="A84" s="8"/>
       <c r="B84" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:5">
       <c r="A85" s="8"/>
       <c r="B85" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:5">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:5">
       <c r="A87" s="8"/>
       <c r="B87" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:5">
       <c r="A88" s="8"/>
       <c r="B88" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:5">
       <c r="A89" s="8"/>
       <c r="B89" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
       <c r="A90" s="8"/>
       <c r="B90" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:5">
       <c r="A91" s="8"/>
       <c r="B91" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:5">
       <c r="A92" s="8"/>
       <c r="B92" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
       <c r="A93" s="8"/>
       <c r="B93" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
       <c r="A94" s="8"/>
       <c r="B94" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:5">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:5">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:5">
       <c r="A97" s="10"/>
       <c r="B97" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
       <c r="A98" s="10"/>
       <c r="B98" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
       <c r="A99" s="10"/>
       <c r="B99" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
       <c r="A100" s="10"/>
       <c r="B100" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:5">
       <c r="A101" s="10"/>
       <c r="B101" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:5">
       <c r="A102" s="10"/>
       <c r="B102" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:5">
       <c r="A103" s="10"/>
       <c r="B103" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:5">
       <c r="A104" s="10"/>
       <c r="B104" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:5">
       <c r="A105" s="10"/>
       <c r="B105" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:5">
       <c r="A106" s="10"/>
       <c r="B106" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:5">
       <c r="A107" s="10"/>
       <c r="B107" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:5">
       <c r="A108" s="8"/>
       <c r="B108" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:5">
       <c r="A109" s="8"/>
       <c r="B109" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:5">
       <c r="A110" s="10"/>
       <c r="B110" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:5">
       <c r="A111" s="10"/>
       <c r="B111" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:5">
       <c r="A112" s="10"/>
       <c r="B112" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:5">
       <c r="A113" s="10"/>
       <c r="B113" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:5">
       <c r="A114" s="10"/>
       <c r="B114" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:5">
       <c r="A115" s="10"/>
       <c r="B115" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:5">
       <c r="A116" s="10"/>
       <c r="B116" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:5">
       <c r="A117" s="10"/>
       <c r="B117" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:5">
       <c r="A118" s="10"/>
       <c r="B118" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:5">
       <c r="A119" s="10"/>
       <c r="B119" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:5">
       <c r="A120" s="10"/>
       <c r="B120" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:5">
       <c r="A121" s="10"/>
       <c r="B121" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:5">
       <c r="A122" s="10"/>
       <c r="B122" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:5">
       <c r="A123" s="8"/>
       <c r="B123" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:5">
       <c r="A124" s="8"/>
       <c r="B124" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:5">
       <c r="A125" s="10"/>
       <c r="B125" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:5">
       <c r="A126" s="10"/>
       <c r="B126" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:5">
       <c r="A127" s="10"/>
       <c r="B127" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:5">
       <c r="A128" s="10"/>
       <c r="B128" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:5">
       <c r="A129" s="10"/>
       <c r="B129" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:5">
       <c r="A130" s="10"/>
       <c r="B130" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:5">
       <c r="A131" s="10"/>
       <c r="B131" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:5">
       <c r="A132" s="10"/>
       <c r="B132" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:5">
       <c r="A133" s="10"/>
       <c r="B133" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:5">
       <c r="A134" s="10"/>
       <c r="B134" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:5">
       <c r="A135" s="10"/>
       <c r="B135" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:5">
       <c r="A136" s="10"/>
       <c r="B136" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:5">
       <c r="A137" s="10"/>
       <c r="B137" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:5">
       <c r="A138" s="10"/>
       <c r="B138" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:5">
       <c r="A139" s="10"/>
       <c r="B139" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:5">
       <c r="A140" s="10"/>
       <c r="B140" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:5">
       <c r="A141" s="10"/>
       <c r="B141" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:5">
       <c r="A142" s="10"/>
       <c r="B142" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:5">
       <c r="A143" s="10"/>
       <c r="B143" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:5">
       <c r="A144" s="10"/>
       <c r="B144" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E144" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:5">
       <c r="A145" s="10"/>
       <c r="B145" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:5">
       <c r="A146" s="10"/>
       <c r="B146" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E146" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:5">
       <c r="A147" s="10"/>
       <c r="B147" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:5">
       <c r="A148" s="10"/>
       <c r="B148" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:5">
       <c r="A149" s="10"/>
       <c r="B149" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:5">
       <c r="A150" s="10"/>
       <c r="B150" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:5">
       <c r="A151" s="10"/>
       <c r="B151" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:5">
       <c r="A152" s="10"/>
       <c r="B152" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:5">
       <c r="A153" s="10"/>
       <c r="B153" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:5">
       <c r="A154" s="10"/>
       <c r="B154" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:5">
       <c r="A155" s="10"/>
       <c r="B155" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:5">
       <c r="A156" s="10"/>
       <c r="B156" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:5">
       <c r="A157" s="10"/>
       <c r="B157" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:5">
       <c r="A158" s="10"/>
       <c r="B158" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:5">
       <c r="A159" s="10"/>
       <c r="B159" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:5">
       <c r="A160" s="10"/>
       <c r="B160" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:5">
       <c r="A161" s="10"/>
       <c r="B161" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:5">
       <c r="A162" s="10"/>
       <c r="B162" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:5">
       <c r="A163" s="10"/>
       <c r="B163" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:5">
       <c r="A164" s="10"/>
       <c r="B164" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:5">
       <c r="A165" s="10"/>
       <c r="B165" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:5">
       <c r="A166" s="10"/>
       <c r="B166" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:5">
       <c r="A167" s="10"/>
       <c r="B167" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:5">
       <c r="A168" s="10"/>
       <c r="B168" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:5">
       <c r="A169" s="10"/>
       <c r="B169" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:5">
       <c r="A170" s="10"/>
       <c r="B170" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:5">
       <c r="A171" s="10"/>
       <c r="B171" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:5">
       <c r="A172" s="10"/>
       <c r="B172" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/X-限时活动.xlsx
+++ b/exceldata/excel/all/X-限时活动.xlsx
@@ -3675,7 +3675,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="7"/>

--- a/exceldata/excel/all/X-限时活动.xlsx
+++ b/exceldata/excel/all/X-限时活动.xlsx
@@ -294,7 +294,7 @@
     <t>盛夏将至活动描述</t>
   </si>
   <si>
-    <t>2022-06-12 00:00:00</t>
+    <t>2022-07-12 00:00:00</t>
   </si>
   <si>
     <t>2022-08-29 00:00:00</t>
@@ -3675,7 +3675,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="7"/>
@@ -3717,7 +3717,7 @@
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:12">
+    <row r="2" ht="111" customHeight="1" spans="1:12">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="27"/>
@@ -4164,17 +4164,17 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.3303571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.8303571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1607142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.6607142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.6607142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.3303571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.7767857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="57.6607142857143" style="1" customWidth="1"/>
     <col min="8" max="9" width="19.1607142857143" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -4583,7 +4583,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>

--- a/exceldata/excel/all/X-限时活动.xlsx
+++ b/exceldata/excel/all/X-限时活动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <t>寻花觅柳活动描述</t>
   </si>
   <si>
-    <t>2022-05-04 15:50:00</t>
+    <t>2022-05-04 17:00:00</t>
   </si>
   <si>
     <t>2022-06-10 00:00:00</t>
@@ -294,7 +294,7 @@
     <t>盛夏将至活动描述</t>
   </si>
   <si>
-    <t>2022-07-12 00:00:00</t>
+    <t>2022-06-12 00:00:00</t>
   </si>
   <si>
     <t>2022-08-29 00:00:00</t>
@@ -2307,12 +2307,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2339,13 +2339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2359,42 +2354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2403,9 +2362,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2420,18 +2387,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2441,16 +2434,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2465,7 +2450,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2479,26 +2486,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2507,19 +2506,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2531,7 +2519,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2570,7 +2558,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2582,7 +2648,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2594,181 +2744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2914,17 +2896,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2945,6 +2918,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2955,15 +2952,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2985,26 +2973,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3023,272 +2994,283 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="1">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="59" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="59" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3309,68 +3291,68 @@
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通数值" xfId="1"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="常规 5" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 3 2" xfId="5"/>
-    <cellStyle name="常规 2" xfId="6"/>
-    <cellStyle name="1表头" xfId="7"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
-    <cellStyle name="输入" xfId="11" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13" builtinId="38"/>
-    <cellStyle name="货币" xfId="14" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="15" builtinId="37"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="18" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="19" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32"/>
-    <cellStyle name="2填表文本" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="22" builtinId="44"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="24" builtinId="29"/>
-    <cellStyle name="适中" xfId="25" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="26" builtinId="46"/>
-    <cellStyle name="好" xfId="27" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="28" builtinId="30"/>
-    <cellStyle name="汇总" xfId="29" builtinId="25"/>
-    <cellStyle name="差" xfId="30" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="31" builtinId="23"/>
-    <cellStyle name="输出" xfId="32" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="33" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="34" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="36" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="常规 2 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="40" builtinId="3"/>
-    <cellStyle name="常规 3 3" xfId="41"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9"/>
-    <cellStyle name="标题" xfId="43" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="45" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="46" builtinId="40"/>
-    <cellStyle name="注释" xfId="47" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="52" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="53" builtinId="17"/>
-    <cellStyle name="表头" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="55" builtinId="47"/>
-    <cellStyle name="适中 2" xfId="56"/>
-    <cellStyle name="标题 3" xfId="57" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="常规 7" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="60" builtinId="31"/>
-    <cellStyle name="常规 3" xfId="61"/>
-    <cellStyle name="链接单元格" xfId="62" builtinId="24"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="表头" xfId="26"/>
+    <cellStyle name="计算" xfId="27" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
+    <cellStyle name="适中" xfId="34" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="普通数值" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="2填表文本" xfId="42"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="44"/>
+    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
+    <cellStyle name="1表头" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
+    <cellStyle name="常规 3 3" xfId="49"/>
+    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="51"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="53" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="54" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="55"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="56" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="57" builtinId="52"/>
+    <cellStyle name="常规 5" xfId="58"/>
+    <cellStyle name="常规 4" xfId="59"/>
+    <cellStyle name="常规 2" xfId="60"/>
+    <cellStyle name="常规 7" xfId="61"/>
+    <cellStyle name="常规 3" xfId="62"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3675,23 +3657,23 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="14.8303571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6607142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6607142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6583333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1607142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1583333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.8303571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.8333333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6607142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6583333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1607142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1583333333333" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3704,34 +3686,34 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" ht="111" customHeight="1" spans="1:12">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:12">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="25"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="32"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="2" t="s">
@@ -3767,7 +3749,7 @@
       <c r="K3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3799,13 +3781,13 @@
       <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3837,13 +3819,13 @@
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3878,37 +3860,37 @@
       <c r="J6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="35" t="s">
@@ -3917,34 +3899,34 @@
       <c r="K7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:12">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J8" s="35" t="s">
@@ -3953,7 +3935,7 @@
       <c r="K8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3987,10 +3969,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.66071428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1607142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.65833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1583333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54.1607142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.1583333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4008,7 +3990,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="15"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
@@ -4079,47 +4061,47 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="20" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4164,19 +4146,19 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.3303571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8303571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6607142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6607142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.7767857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.6607142857143" style="1" customWidth="1"/>
-    <col min="8" max="9" width="19.1607142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6583333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6583333333333" style="1" customWidth="1"/>
+    <col min="8" max="9" width="19.1583333333333" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4189,13 +4171,13 @@
       <c r="D1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="12" t="s">
@@ -4203,7 +4185,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="15"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="3" t="s">
         <v>85</v>
       </c>
@@ -4213,8 +4195,8 @@
       <c r="G2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4238,10 +4220,10 @@
       <c r="G3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4267,10 +4249,10 @@
       <c r="G4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4296,10 +4278,10 @@
       <c r="G5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4325,239 +4307,239 @@
       <c r="G6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="10" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4583,15 +4565,15 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
+      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.16071428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3303571428571" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.1607142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.15833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.1583333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4673,2497 +4655,2497 @@
       <c r="D6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="10"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="10"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="10"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="10"/>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="10"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="10"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="10"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="10"/>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="10"/>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="10"/>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="11"/>
+      <c r="B60" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="10"/>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="10"/>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="10"/>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="10"/>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="10" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="10"/>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="10"/>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="10" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="10"/>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="10" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="10"/>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="10" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="10" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="8"/>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="10" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="10" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="10" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="8"/>
-      <c r="B79" s="9" t="s">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9" t="s">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9" t="s">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9" t="s">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9" t="s">
+      <c r="A84" s="9"/>
+      <c r="B84" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="8"/>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="9"/>
+      <c r="B86" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9" t="s">
+      <c r="A87" s="9"/>
+      <c r="B87" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9" t="s">
+      <c r="A88" s="9"/>
+      <c r="B88" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="8"/>
-      <c r="B89" s="9" t="s">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="8"/>
-      <c r="B90" s="9" t="s">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="8"/>
-      <c r="B91" s="9" t="s">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9" t="s">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9" t="s">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9" t="s">
+      <c r="A94" s="9"/>
+      <c r="B94" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="8"/>
-      <c r="B95" s="9" t="s">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="10" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="8"/>
-      <c r="B96" s="9" t="s">
+      <c r="A96" s="9"/>
+      <c r="B96" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="10" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="10"/>
-      <c r="B97" s="9" t="s">
+      <c r="A97" s="11"/>
+      <c r="B97" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="10" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="10"/>
-      <c r="B98" s="9" t="s">
+      <c r="A98" s="11"/>
+      <c r="B98" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="10"/>
-      <c r="B99" s="9" t="s">
+      <c r="A99" s="11"/>
+      <c r="B99" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="10" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="10"/>
-      <c r="B100" s="9" t="s">
+      <c r="A100" s="11"/>
+      <c r="B100" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="10" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="10"/>
-      <c r="B101" s="9" t="s">
+      <c r="A101" s="11"/>
+      <c r="B101" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="10" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:5">
-      <c r="A102" s="10"/>
-      <c r="B102" s="9" t="s">
+      <c r="A102" s="11"/>
+      <c r="B102" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="10" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:5">
-      <c r="A103" s="10"/>
-      <c r="B103" s="9" t="s">
+      <c r="A103" s="11"/>
+      <c r="B103" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="10" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:5">
-      <c r="A104" s="10"/>
-      <c r="B104" s="9" t="s">
+      <c r="A104" s="11"/>
+      <c r="B104" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="10" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:5">
-      <c r="A105" s="10"/>
-      <c r="B105" s="9" t="s">
+      <c r="A105" s="11"/>
+      <c r="B105" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="10" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:5">
-      <c r="A106" s="10"/>
-      <c r="B106" s="9" t="s">
+      <c r="A106" s="11"/>
+      <c r="B106" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="10" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:5">
-      <c r="A107" s="10"/>
-      <c r="B107" s="9" t="s">
+      <c r="A107" s="11"/>
+      <c r="B107" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:5">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9" t="s">
+      <c r="A108" s="9"/>
+      <c r="B108" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:5">
-      <c r="A109" s="8"/>
-      <c r="B109" s="9" t="s">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:5">
-      <c r="A110" s="10"/>
-      <c r="B110" s="9" t="s">
+      <c r="A110" s="11"/>
+      <c r="B110" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:5">
-      <c r="A111" s="10"/>
-      <c r="B111" s="9" t="s">
+      <c r="A111" s="11"/>
+      <c r="B111" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:5">
-      <c r="A112" s="10"/>
-      <c r="B112" s="9" t="s">
+      <c r="A112" s="11"/>
+      <c r="B112" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:5">
-      <c r="A113" s="10"/>
-      <c r="B113" s="9" t="s">
+      <c r="A113" s="11"/>
+      <c r="B113" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:5">
-      <c r="A114" s="10"/>
-      <c r="B114" s="9" t="s">
+      <c r="A114" s="11"/>
+      <c r="B114" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:5">
-      <c r="A115" s="10"/>
-      <c r="B115" s="9" t="s">
+      <c r="A115" s="11"/>
+      <c r="B115" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:5">
-      <c r="A116" s="10"/>
-      <c r="B116" s="9" t="s">
+      <c r="A116" s="11"/>
+      <c r="B116" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:5">
-      <c r="A117" s="10"/>
-      <c r="B117" s="9" t="s">
+      <c r="A117" s="11"/>
+      <c r="B117" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:5">
-      <c r="A118" s="10"/>
-      <c r="B118" s="9" t="s">
+      <c r="A118" s="11"/>
+      <c r="B118" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:5">
-      <c r="A119" s="10"/>
-      <c r="B119" s="9" t="s">
+      <c r="A119" s="11"/>
+      <c r="B119" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:5">
-      <c r="A120" s="10"/>
-      <c r="B120" s="9" t="s">
+      <c r="A120" s="11"/>
+      <c r="B120" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:5">
-      <c r="A121" s="10"/>
-      <c r="B121" s="9" t="s">
+      <c r="A121" s="11"/>
+      <c r="B121" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:5">
-      <c r="A122" s="10"/>
-      <c r="B122" s="9" t="s">
+      <c r="A122" s="11"/>
+      <c r="B122" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:5">
-      <c r="A123" s="8"/>
-      <c r="B123" s="9" t="s">
+      <c r="A123" s="9"/>
+      <c r="B123" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:5">
-      <c r="A124" s="8"/>
-      <c r="B124" s="9" t="s">
+      <c r="A124" s="9"/>
+      <c r="B124" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:5">
-      <c r="A125" s="10"/>
-      <c r="B125" s="9" t="s">
+      <c r="A125" s="11"/>
+      <c r="B125" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:5">
-      <c r="A126" s="10"/>
-      <c r="B126" s="9" t="s">
+      <c r="A126" s="11"/>
+      <c r="B126" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:5">
-      <c r="A127" s="10"/>
-      <c r="B127" s="9" t="s">
+      <c r="A127" s="11"/>
+      <c r="B127" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:5">
-      <c r="A128" s="10"/>
-      <c r="B128" s="9" t="s">
+      <c r="A128" s="11"/>
+      <c r="B128" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:5">
-      <c r="A129" s="10"/>
-      <c r="B129" s="9" t="s">
+      <c r="A129" s="11"/>
+      <c r="B129" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:5">
-      <c r="A130" s="10"/>
-      <c r="B130" s="9" t="s">
+      <c r="A130" s="11"/>
+      <c r="B130" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:5">
-      <c r="A131" s="10"/>
-      <c r="B131" s="9" t="s">
+      <c r="A131" s="11"/>
+      <c r="B131" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:5">
-      <c r="A132" s="10"/>
-      <c r="B132" s="9" t="s">
+      <c r="A132" s="11"/>
+      <c r="B132" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E132" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:5">
-      <c r="A133" s="10"/>
-      <c r="B133" s="9" t="s">
+      <c r="A133" s="11"/>
+      <c r="B133" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:5">
-      <c r="A134" s="10"/>
-      <c r="B134" s="9" t="s">
+      <c r="A134" s="11"/>
+      <c r="B134" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:5">
-      <c r="A135" s="10"/>
-      <c r="B135" s="9" t="s">
+      <c r="A135" s="11"/>
+      <c r="B135" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:5">
-      <c r="A136" s="10"/>
-      <c r="B136" s="9" t="s">
+      <c r="A136" s="11"/>
+      <c r="B136" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:5">
-      <c r="A137" s="10"/>
-      <c r="B137" s="9" t="s">
+      <c r="A137" s="11"/>
+      <c r="B137" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:5">
-      <c r="A138" s="10"/>
-      <c r="B138" s="9" t="s">
+      <c r="A138" s="11"/>
+      <c r="B138" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:5">
-      <c r="A139" s="10"/>
-      <c r="B139" s="9" t="s">
+      <c r="A139" s="11"/>
+      <c r="B139" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:5">
-      <c r="A140" s="10"/>
-      <c r="B140" s="9" t="s">
+      <c r="A140" s="11"/>
+      <c r="B140" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="E140" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:5">
-      <c r="A141" s="10"/>
-      <c r="B141" s="9" t="s">
+      <c r="A141" s="11"/>
+      <c r="B141" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="E141" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:5">
-      <c r="A142" s="10"/>
-      <c r="B142" s="9" t="s">
+      <c r="A142" s="11"/>
+      <c r="B142" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="E142" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:5">
-      <c r="A143" s="10"/>
-      <c r="B143" s="9" t="s">
+      <c r="A143" s="11"/>
+      <c r="B143" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:5">
-      <c r="A144" s="10"/>
-      <c r="B144" s="9" t="s">
+      <c r="A144" s="11"/>
+      <c r="B144" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E144" s="10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:5">
-      <c r="A145" s="10"/>
-      <c r="B145" s="9" t="s">
+      <c r="A145" s="11"/>
+      <c r="B145" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:5">
-      <c r="A146" s="10"/>
-      <c r="B146" s="9" t="s">
+      <c r="A146" s="11"/>
+      <c r="B146" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:5">
-      <c r="A147" s="10"/>
-      <c r="B147" s="9" t="s">
+      <c r="A147" s="11"/>
+      <c r="B147" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:5">
-      <c r="A148" s="10"/>
-      <c r="B148" s="9" t="s">
+      <c r="A148" s="11"/>
+      <c r="B148" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="E148" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:5">
-      <c r="A149" s="10"/>
-      <c r="B149" s="9" t="s">
+      <c r="A149" s="11"/>
+      <c r="B149" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:5">
-      <c r="A150" s="10"/>
-      <c r="B150" s="9" t="s">
+      <c r="A150" s="11"/>
+      <c r="B150" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E150" s="9" t="s">
+      <c r="E150" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:5">
-      <c r="A151" s="10"/>
-      <c r="B151" s="9" t="s">
+      <c r="A151" s="11"/>
+      <c r="B151" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E151" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:5">
-      <c r="A152" s="10"/>
-      <c r="B152" s="9" t="s">
+      <c r="A152" s="11"/>
+      <c r="B152" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E152" s="9" t="s">
+      <c r="E152" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:5">
-      <c r="A153" s="10"/>
-      <c r="B153" s="9" t="s">
+      <c r="A153" s="11"/>
+      <c r="B153" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="E153" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:5">
-      <c r="A154" s="10"/>
-      <c r="B154" s="9" t="s">
+      <c r="A154" s="11"/>
+      <c r="B154" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="E154" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:5">
-      <c r="A155" s="10"/>
-      <c r="B155" s="9" t="s">
+      <c r="A155" s="11"/>
+      <c r="B155" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="E155" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:5">
-      <c r="A156" s="10"/>
-      <c r="B156" s="9" t="s">
+      <c r="A156" s="11"/>
+      <c r="B156" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="E156" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:5">
-      <c r="A157" s="10"/>
-      <c r="B157" s="9" t="s">
+      <c r="A157" s="11"/>
+      <c r="B157" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:5">
-      <c r="A158" s="10"/>
-      <c r="B158" s="9" t="s">
+      <c r="A158" s="11"/>
+      <c r="B158" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:5">
-      <c r="A159" s="10"/>
-      <c r="B159" s="9" t="s">
+      <c r="A159" s="11"/>
+      <c r="B159" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E159" s="9" t="s">
+      <c r="E159" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:5">
-      <c r="A160" s="10"/>
-      <c r="B160" s="9" t="s">
+      <c r="A160" s="11"/>
+      <c r="B160" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E160" s="9" t="s">
+      <c r="E160" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:5">
-      <c r="A161" s="10"/>
-      <c r="B161" s="9" t="s">
+      <c r="A161" s="11"/>
+      <c r="B161" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C161" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="E161" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:5">
-      <c r="A162" s="10"/>
-      <c r="B162" s="9" t="s">
+      <c r="A162" s="11"/>
+      <c r="B162" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="E162" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:5">
-      <c r="A163" s="10"/>
-      <c r="B163" s="9" t="s">
+      <c r="A163" s="11"/>
+      <c r="B163" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:5">
-      <c r="A164" s="10"/>
-      <c r="B164" s="9" t="s">
+      <c r="A164" s="11"/>
+      <c r="B164" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="E164" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:5">
-      <c r="A165" s="10"/>
-      <c r="B165" s="9" t="s">
+      <c r="A165" s="11"/>
+      <c r="B165" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E165" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:5">
-      <c r="A166" s="10"/>
-      <c r="B166" s="9" t="s">
+      <c r="A166" s="11"/>
+      <c r="B166" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E166" s="9" t="s">
+      <c r="E166" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:5">
-      <c r="A167" s="10"/>
-      <c r="B167" s="9" t="s">
+      <c r="A167" s="11"/>
+      <c r="B167" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:5">
-      <c r="A168" s="10"/>
-      <c r="B168" s="9" t="s">
+      <c r="A168" s="11"/>
+      <c r="B168" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="E168" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:5">
-      <c r="A169" s="10"/>
-      <c r="B169" s="9" t="s">
+      <c r="A169" s="11"/>
+      <c r="B169" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:5">
-      <c r="A170" s="10"/>
-      <c r="B170" s="9" t="s">
+      <c r="A170" s="11"/>
+      <c r="B170" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E170" s="9" t="s">
+      <c r="E170" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:5">
-      <c r="A171" s="10"/>
-      <c r="B171" s="9" t="s">
+      <c r="A171" s="11"/>
+      <c r="B171" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E171" s="9" t="s">
+      <c r="E171" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:5">
-      <c r="A172" s="10"/>
-      <c r="B172" s="9" t="s">
+      <c r="A172" s="11"/>
+      <c r="B172" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E172" s="9" t="s">
+      <c r="E172" s="10" t="s">
         <v>276</v>
       </c>
     </row>

--- a/exceldata/excel/all/X-限时活动.xlsx
+++ b/exceldata/excel/all/X-限时活动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9072"/>
+    <workbookView windowWidth="27900" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -244,13 +244,13 @@
     <t>寻花觅柳活动描述</t>
   </si>
   <si>
-    <t>2022-05-04 17:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-10 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-11 00:00:00</t>
+    <t>2022-08-08 13:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-11 00:00:00</t>
   </si>
   <si>
     <r>
@@ -294,13 +294,13 @@
     <t>盛夏将至活动描述</t>
   </si>
   <si>
-    <t>2022-06-12 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-08-29 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-09-29 00:00:00</t>
+    <t>2022-10-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-14 00:00:00</t>
   </si>
   <si>
     <t>活动组01//活动组03</t>
@@ -2307,9 +2307,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -2346,6 +2346,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2354,83 +2361,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2441,18 +2375,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2478,12 +2413,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -2494,14 +2433,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2558,13 +2558,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2576,25 +2600,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2606,49 +2630,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2666,13 +2666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2684,37 +2684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2726,7 +2702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2738,13 +2726,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2902,41 +2902,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2956,6 +2926,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2967,15 +2946,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,272 +2975,302 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="59" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="59" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,68 +3291,68 @@
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="表头" xfId="26"/>
-    <cellStyle name="计算" xfId="27" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
-    <cellStyle name="汇总" xfId="32" builtinId="25"/>
-    <cellStyle name="好" xfId="33" builtinId="26"/>
-    <cellStyle name="适中" xfId="34" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
-    <cellStyle name="普通数值" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="2填表文本" xfId="42"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="常规 3 2" xfId="44"/>
-    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
-    <cellStyle name="1表头" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="常规 3 3" xfId="49"/>
-    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="51"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="53" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="54" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="56" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="57" builtinId="52"/>
-    <cellStyle name="常规 5" xfId="58"/>
-    <cellStyle name="常规 4" xfId="59"/>
-    <cellStyle name="常规 2" xfId="60"/>
-    <cellStyle name="常规 7" xfId="61"/>
-    <cellStyle name="常规 3" xfId="62"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 5" xfId="3"/>
+    <cellStyle name="1表头" xfId="4"/>
+    <cellStyle name="常规 3 2" xfId="5"/>
+    <cellStyle name="普通数值" xfId="6"/>
+    <cellStyle name="常规 6" xfId="7"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
+    <cellStyle name="输入" xfId="11" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13" builtinId="38"/>
+    <cellStyle name="货币" xfId="14" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="15" builtinId="37"/>
+    <cellStyle name="百分比" xfId="16" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="18" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="19" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32"/>
+    <cellStyle name="2填表文本" xfId="21"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="22" builtinId="44"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="24" builtinId="29"/>
+    <cellStyle name="适中" xfId="25" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="26" builtinId="46"/>
+    <cellStyle name="好" xfId="27" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="28" builtinId="30"/>
+    <cellStyle name="汇总" xfId="29" builtinId="25"/>
+    <cellStyle name="差" xfId="30" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="31" builtinId="23"/>
+    <cellStyle name="输出" xfId="32" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="33" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="34" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="36" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="常规 2 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="40" builtinId="3"/>
+    <cellStyle name="常规 3 3" xfId="41"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9"/>
+    <cellStyle name="标题" xfId="43" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="45" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="46" builtinId="40"/>
+    <cellStyle name="注释" xfId="47" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="52" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="53" builtinId="17"/>
+    <cellStyle name="表头" xfId="54"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="55" builtinId="47"/>
+    <cellStyle name="适中 2" xfId="56"/>
+    <cellStyle name="标题 3" xfId="57" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
+    <cellStyle name="常规 7" xfId="59"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="60" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="61"/>
+    <cellStyle name="链接单元格" xfId="62" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3657,23 +3657,23 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="14.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8303571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6607142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6607142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1583333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1607142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.8333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.8303571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6583333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6607142857143" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1583333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1607142857143" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3686,34 +3686,34 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:12">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="27"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="32"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="2" t="s">
@@ -3749,7 +3749,7 @@
       <c r="K3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3781,13 +3781,13 @@
       <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3819,13 +3819,13 @@
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3860,37 +3860,37 @@
       <c r="J6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="35" t="s">
@@ -3899,34 +3899,34 @@
       <c r="K7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:12">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J8" s="35" t="s">
@@ -3935,7 +3935,7 @@
       <c r="K8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3969,10 +3969,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.65833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66071428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1607142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54.1583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.1607142857143" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3990,7 +3990,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="17"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
@@ -4061,47 +4061,47 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4151,14 +4151,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.6583333333333" style="1" customWidth="1"/>
-    <col min="8" max="9" width="19.1583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3303571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8303571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1607142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6607142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6607142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.3303571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6607142857143" style="1" customWidth="1"/>
+    <col min="8" max="9" width="19.1607142857143" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4171,13 +4171,13 @@
       <c r="D1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="12" t="s">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="17"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="3" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4195,8 @@
       <c r="G2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4220,10 +4220,10 @@
       <c r="G3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4249,10 +4249,10 @@
       <c r="G4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4278,10 +4278,10 @@
       <c r="G5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4307,239 +4307,239 @@
       <c r="G6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4571,9 +4571,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.15833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.1583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.16071428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3303571428571" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.1607142857143" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4655,2497 +4655,2497 @@
       <c r="D6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="11"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="11"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="11"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="11"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="11"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="11"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="11"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="11"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="10"/>
+      <c r="B52" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="11"/>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="11"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="11"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="11"/>
-      <c r="B56" s="10" t="s">
+      <c r="A56" s="10"/>
+      <c r="B56" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="11"/>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="10"/>
+      <c r="B57" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="11"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="10"/>
+      <c r="B58" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="11"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="10"/>
+      <c r="B59" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="11"/>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="10"/>
+      <c r="B60" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="9" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="11"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="10"/>
+      <c r="B61" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="9" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="11"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="10"/>
+      <c r="B62" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="9" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="11"/>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="10"/>
+      <c r="B63" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="9" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="11"/>
-      <c r="B64" s="10" t="s">
+      <c r="A64" s="10"/>
+      <c r="B64" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="9" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="11"/>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="10"/>
+      <c r="B65" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="9" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="11"/>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="10"/>
+      <c r="B66" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="11"/>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="10"/>
+      <c r="B67" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="9" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="11"/>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="10"/>
+      <c r="B68" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="9" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="11"/>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="10"/>
+      <c r="B69" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10" t="s">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10" t="s">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10" t="s">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="9"/>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10" t="s">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10" t="s">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10" t="s">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10" t="s">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10" t="s">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="9" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10" t="s">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="9" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="11"/>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="10"/>
+      <c r="B97" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="9" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="11"/>
-      <c r="B98" s="10" t="s">
+      <c r="A98" s="10"/>
+      <c r="B98" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="9" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="11"/>
-      <c r="B99" s="10" t="s">
+      <c r="A99" s="10"/>
+      <c r="B99" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="9" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="11"/>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="10"/>
+      <c r="B100" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="9" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="11"/>
-      <c r="B101" s="10" t="s">
+      <c r="A101" s="10"/>
+      <c r="B101" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="9" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:5">
-      <c r="A102" s="11"/>
-      <c r="B102" s="10" t="s">
+      <c r="A102" s="10"/>
+      <c r="B102" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="9" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:5">
-      <c r="A103" s="11"/>
-      <c r="B103" s="10" t="s">
+      <c r="A103" s="10"/>
+      <c r="B103" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="9" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:5">
-      <c r="A104" s="11"/>
-      <c r="B104" s="10" t="s">
+      <c r="A104" s="10"/>
+      <c r="B104" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="9" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:5">
-      <c r="A105" s="11"/>
-      <c r="B105" s="10" t="s">
+      <c r="A105" s="10"/>
+      <c r="B105" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="9" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:5">
-      <c r="A106" s="11"/>
-      <c r="B106" s="10" t="s">
+      <c r="A106" s="10"/>
+      <c r="B106" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="9" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:5">
-      <c r="A107" s="11"/>
-      <c r="B107" s="10" t="s">
+      <c r="A107" s="10"/>
+      <c r="B107" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="9" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:5">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10" t="s">
+      <c r="A108" s="8"/>
+      <c r="B108" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:5">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10" t="s">
+      <c r="A109" s="8"/>
+      <c r="B109" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E109" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:5">
-      <c r="A110" s="11"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="10"/>
+      <c r="B110" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:5">
-      <c r="A111" s="11"/>
-      <c r="B111" s="10" t="s">
+      <c r="A111" s="10"/>
+      <c r="B111" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:5">
-      <c r="A112" s="11"/>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="10"/>
+      <c r="B112" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E112" s="9" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:5">
-      <c r="A113" s="11"/>
-      <c r="B113" s="10" t="s">
+      <c r="A113" s="10"/>
+      <c r="B113" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:5">
-      <c r="A114" s="11"/>
-      <c r="B114" s="10" t="s">
+      <c r="A114" s="10"/>
+      <c r="B114" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E114" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:5">
-      <c r="A115" s="11"/>
-      <c r="B115" s="10" t="s">
+      <c r="A115" s="10"/>
+      <c r="B115" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E115" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:5">
-      <c r="A116" s="11"/>
-      <c r="B116" s="10" t="s">
+      <c r="A116" s="10"/>
+      <c r="B116" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E116" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:5">
-      <c r="A117" s="11"/>
-      <c r="B117" s="10" t="s">
+      <c r="A117" s="10"/>
+      <c r="B117" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="9" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:5">
-      <c r="A118" s="11"/>
-      <c r="B118" s="10" t="s">
+      <c r="A118" s="10"/>
+      <c r="B118" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="E118" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:5">
-      <c r="A119" s="11"/>
-      <c r="B119" s="10" t="s">
+      <c r="A119" s="10"/>
+      <c r="B119" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E119" s="10" t="s">
+      <c r="E119" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:5">
-      <c r="A120" s="11"/>
-      <c r="B120" s="10" t="s">
+      <c r="A120" s="10"/>
+      <c r="B120" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E120" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:5">
-      <c r="A121" s="11"/>
-      <c r="B121" s="10" t="s">
+      <c r="A121" s="10"/>
+      <c r="B121" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E121" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:5">
-      <c r="A122" s="11"/>
-      <c r="B122" s="10" t="s">
+      <c r="A122" s="10"/>
+      <c r="B122" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="9" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:5">
-      <c r="A123" s="9"/>
-      <c r="B123" s="10" t="s">
+      <c r="A123" s="8"/>
+      <c r="B123" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:5">
-      <c r="A124" s="9"/>
-      <c r="B124" s="10" t="s">
+      <c r="A124" s="8"/>
+      <c r="B124" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E124" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:5">
-      <c r="A125" s="11"/>
-      <c r="B125" s="10" t="s">
+      <c r="A125" s="10"/>
+      <c r="B125" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E125" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:5">
-      <c r="A126" s="11"/>
-      <c r="B126" s="10" t="s">
+      <c r="A126" s="10"/>
+      <c r="B126" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E126" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:5">
-      <c r="A127" s="11"/>
-      <c r="B127" s="10" t="s">
+      <c r="A127" s="10"/>
+      <c r="B127" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E127" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:5">
-      <c r="A128" s="11"/>
-      <c r="B128" s="10" t="s">
+      <c r="A128" s="10"/>
+      <c r="B128" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="E128" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:5">
-      <c r="A129" s="11"/>
-      <c r="B129" s="10" t="s">
+      <c r="A129" s="10"/>
+      <c r="B129" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:5">
-      <c r="A130" s="11"/>
-      <c r="B130" s="10" t="s">
+      <c r="A130" s="10"/>
+      <c r="B130" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:5">
-      <c r="A131" s="11"/>
-      <c r="B131" s="10" t="s">
+      <c r="A131" s="10"/>
+      <c r="B131" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:5">
-      <c r="A132" s="11"/>
-      <c r="B132" s="10" t="s">
+      <c r="A132" s="10"/>
+      <c r="B132" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E132" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:5">
-      <c r="A133" s="11"/>
-      <c r="B133" s="10" t="s">
+      <c r="A133" s="10"/>
+      <c r="B133" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E133" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:5">
-      <c r="A134" s="11"/>
-      <c r="B134" s="10" t="s">
+      <c r="A134" s="10"/>
+      <c r="B134" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E134" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:5">
-      <c r="A135" s="11"/>
-      <c r="B135" s="10" t="s">
+      <c r="A135" s="10"/>
+      <c r="B135" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E135" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:5">
-      <c r="A136" s="11"/>
-      <c r="B136" s="10" t="s">
+      <c r="A136" s="10"/>
+      <c r="B136" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E136" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:5">
-      <c r="A137" s="11"/>
-      <c r="B137" s="10" t="s">
+      <c r="A137" s="10"/>
+      <c r="B137" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="E137" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:5">
-      <c r="A138" s="11"/>
-      <c r="B138" s="10" t="s">
+      <c r="A138" s="10"/>
+      <c r="B138" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E138" s="9" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:5">
-      <c r="A139" s="11"/>
-      <c r="B139" s="10" t="s">
+      <c r="A139" s="10"/>
+      <c r="B139" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="E139" s="10" t="s">
+      <c r="E139" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:5">
-      <c r="A140" s="11"/>
-      <c r="B140" s="10" t="s">
+      <c r="A140" s="10"/>
+      <c r="B140" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="E140" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:5">
-      <c r="A141" s="11"/>
-      <c r="B141" s="10" t="s">
+      <c r="A141" s="10"/>
+      <c r="B141" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="E141" s="10" t="s">
+      <c r="E141" s="9" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:5">
-      <c r="A142" s="11"/>
-      <c r="B142" s="10" t="s">
+      <c r="A142" s="10"/>
+      <c r="B142" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E142" s="10" t="s">
+      <c r="E142" s="9" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:5">
-      <c r="A143" s="11"/>
-      <c r="B143" s="10" t="s">
+      <c r="A143" s="10"/>
+      <c r="B143" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E143" s="9" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:5">
-      <c r="A144" s="11"/>
-      <c r="B144" s="10" t="s">
+      <c r="A144" s="10"/>
+      <c r="B144" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E144" s="10" t="s">
+      <c r="E144" s="9" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:5">
-      <c r="A145" s="11"/>
-      <c r="B145" s="10" t="s">
+      <c r="A145" s="10"/>
+      <c r="B145" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E145" s="9" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:5">
-      <c r="A146" s="11"/>
-      <c r="B146" s="10" t="s">
+      <c r="A146" s="10"/>
+      <c r="B146" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E146" s="9" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:5">
-      <c r="A147" s="11"/>
-      <c r="B147" s="10" t="s">
+      <c r="A147" s="10"/>
+      <c r="B147" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="9" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:5">
-      <c r="A148" s="11"/>
-      <c r="B148" s="10" t="s">
+      <c r="A148" s="10"/>
+      <c r="B148" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E148" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:5">
-      <c r="A149" s="11"/>
-      <c r="B149" s="10" t="s">
+      <c r="A149" s="10"/>
+      <c r="B149" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E149" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:5">
-      <c r="A150" s="11"/>
-      <c r="B150" s="10" t="s">
+      <c r="A150" s="10"/>
+      <c r="B150" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:5">
-      <c r="A151" s="11"/>
-      <c r="B151" s="10" t="s">
+      <c r="A151" s="10"/>
+      <c r="B151" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:5">
-      <c r="A152" s="11"/>
-      <c r="B152" s="10" t="s">
+      <c r="A152" s="10"/>
+      <c r="B152" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E152" s="10" t="s">
+      <c r="E152" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:5">
-      <c r="A153" s="11"/>
-      <c r="B153" s="10" t="s">
+      <c r="A153" s="10"/>
+      <c r="B153" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E153" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:5">
-      <c r="A154" s="11"/>
-      <c r="B154" s="10" t="s">
+      <c r="A154" s="10"/>
+      <c r="B154" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E154" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:5">
-      <c r="A155" s="11"/>
-      <c r="B155" s="10" t="s">
+      <c r="A155" s="10"/>
+      <c r="B155" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E155" s="10" t="s">
+      <c r="E155" s="9" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:5">
-      <c r="A156" s="11"/>
-      <c r="B156" s="10" t="s">
+      <c r="A156" s="10"/>
+      <c r="B156" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D156" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E156" s="10" t="s">
+      <c r="E156" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:5">
-      <c r="A157" s="11"/>
-      <c r="B157" s="10" t="s">
+      <c r="A157" s="10"/>
+      <c r="B157" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="D157" s="10" t="s">
+      <c r="D157" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E157" s="9" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:5">
-      <c r="A158" s="11"/>
-      <c r="B158" s="10" t="s">
+      <c r="A158" s="10"/>
+      <c r="B158" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D158" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E158" s="9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:5">
-      <c r="A159" s="11"/>
-      <c r="B159" s="10" t="s">
+      <c r="A159" s="10"/>
+      <c r="B159" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E159" s="10" t="s">
+      <c r="E159" s="9" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:5">
-      <c r="A160" s="11"/>
-      <c r="B160" s="10" t="s">
+      <c r="A160" s="10"/>
+      <c r="B160" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E160" s="10" t="s">
+      <c r="E160" s="9" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:5">
-      <c r="A161" s="11"/>
-      <c r="B161" s="10" t="s">
+      <c r="A161" s="10"/>
+      <c r="B161" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E161" s="9" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:5">
-      <c r="A162" s="11"/>
-      <c r="B162" s="10" t="s">
+      <c r="A162" s="10"/>
+      <c r="B162" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E162" s="10" t="s">
+      <c r="E162" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:5">
-      <c r="A163" s="11"/>
-      <c r="B163" s="10" t="s">
+      <c r="A163" s="10"/>
+      <c r="B163" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E163" s="10" t="s">
+      <c r="E163" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:5">
-      <c r="A164" s="11"/>
-      <c r="B164" s="10" t="s">
+      <c r="A164" s="10"/>
+      <c r="B164" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E164" s="10" t="s">
+      <c r="E164" s="9" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:5">
-      <c r="A165" s="11"/>
-      <c r="B165" s="10" t="s">
+      <c r="A165" s="10"/>
+      <c r="B165" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D165" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E165" s="10" t="s">
+      <c r="E165" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:5">
-      <c r="A166" s="11"/>
-      <c r="B166" s="10" t="s">
+      <c r="A166" s="10"/>
+      <c r="B166" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D166" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E166" s="10" t="s">
+      <c r="E166" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:5">
-      <c r="A167" s="11"/>
-      <c r="B167" s="10" t="s">
+      <c r="A167" s="10"/>
+      <c r="B167" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E167" s="10" t="s">
+      <c r="E167" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:5">
-      <c r="A168" s="11"/>
-      <c r="B168" s="10" t="s">
+      <c r="A168" s="10"/>
+      <c r="B168" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D168" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E168" s="10" t="s">
+      <c r="E168" s="9" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:5">
-      <c r="A169" s="11"/>
-      <c r="B169" s="10" t="s">
+      <c r="A169" s="10"/>
+      <c r="B169" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E169" s="10" t="s">
+      <c r="E169" s="9" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:5">
-      <c r="A170" s="11"/>
-      <c r="B170" s="10" t="s">
+      <c r="A170" s="10"/>
+      <c r="B170" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="D170" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E170" s="10" t="s">
+      <c r="E170" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:5">
-      <c r="A171" s="11"/>
-      <c r="B171" s="10" t="s">
+      <c r="A171" s="10"/>
+      <c r="B171" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E171" s="10" t="s">
+      <c r="E171" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:5">
-      <c r="A172" s="11"/>
-      <c r="B172" s="10" t="s">
+      <c r="A172" s="10"/>
+      <c r="B172" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E172" s="10" t="s">
+      <c r="E172" s="9" t="s">
         <v>276</v>
       </c>
     </row>

--- a/exceldata/excel/all/X-限时活动.xlsx
+++ b/exceldata/excel/all/X-限时活动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12240"/>
+    <workbookView windowWidth="27900" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -244,13 +244,13 @@
     <t>寻花觅柳活动描述</t>
   </si>
   <si>
-    <t>2022-08-08 13:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-10 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-11 00:00:00</t>
+    <t>2022-10-27 13:00:00</t>
+  </si>
+  <si>
+    <t>2022-11-20 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-11-20 00:50:00</t>
   </si>
   <si>
     <r>
@@ -294,13 +294,13 @@
     <t>盛夏将至活动描述</t>
   </si>
   <si>
-    <t>2022-10-12 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-13 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-14 00:00:00</t>
+    <t>2022-11-21 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-11-14 00:00:00</t>
   </si>
   <si>
     <t>活动组01//活动组03</t>
@@ -2307,10 +2307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2340,14 +2340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2368,18 +2361,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2390,11 +2384,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2413,16 +2406,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -2434,10 +2423,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2450,7 +2439,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2464,50 +2506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2558,19 +2558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2600,7 +2594,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2612,25 +2666,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,67 +2714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,31 +2726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2750,7 +2750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,8 +2896,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2906,7 +2906,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2926,11 +2926,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2950,6 +2956,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -2961,17 +2976,6 @@
       </top>
       <bottom style="hair">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2991,17 +2995,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3009,175 +3009,175 @@
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3186,52 +3186,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3246,31 +3246,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,13 +3291,13 @@
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="常规 5" xfId="3"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="普通数值" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="3"/>
     <cellStyle name="1表头" xfId="4"/>
-    <cellStyle name="常规 3 2" xfId="5"/>
-    <cellStyle name="普通数值" xfId="6"/>
-    <cellStyle name="常规 6" xfId="7"/>
+    <cellStyle name="常规 5" xfId="5"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 2" xfId="7"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
@@ -3657,7 +3657,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="7"/>
